--- a/inputParameters.xlsx
+++ b/inputParameters.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61CB7F49-6950-4BF5-B9A6-66C289C26F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\6G-XTREME\PoF_Simulation_PYTHON\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7D3DA0-54F9-4D21-802E-AB5E1BF31577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TransmittingPowers" sheetId="1" r:id="rId1"/>
     <sheet name="FadingRayleighDistribution" sheetId="2" r:id="rId2"/>
+    <sheet name="nice_setup" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -155,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,7 +220,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -502,7 +508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -516,19 +522,19 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -536,7 +542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -544,7 +550,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -552,7 +558,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -560,7 +566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -568,7 +574,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -576,7 +582,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -584,7 +590,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -601,16 +607,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFBAC83-B0EF-4618-A2C0-72901A73A438}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -626,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -634,7 +640,7 @@
         <v>2.5000000000000001E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -645,7 +651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -653,7 +659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -661,7 +667,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -669,7 +675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -678,7 +684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -689,7 +695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -700,7 +706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -708,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -720,7 +726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -732,7 +738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -745,7 +751,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -754,7 +760,7 @@
         <v>22.950819672131146</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -765,7 +771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -773,7 +779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -781,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -792,7 +798,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -803,7 +809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -811,7 +817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -819,7 +825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -827,7 +833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -836,12 +842,283 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
       <c r="B25">
         <f>TransmittingPowers!B3</f>
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E9AB30-FD2D-49D4-BABC-4F863DEFC194}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>955.1300803245623</v>
+      </c>
+      <c r="B1">
+        <v>762.56159986885848</v>
+      </c>
+      <c r="C1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>940.92696276748984</v>
+      </c>
+      <c r="B2">
+        <v>243.19756048323993</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>118.81812529496783</v>
+      </c>
+      <c r="B3">
+        <v>719.47146099678162</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>669.19410557376602</v>
+      </c>
+      <c r="B4">
+        <v>346.1766416476467</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>483.31687565575299</v>
+      </c>
+      <c r="B5">
+        <v>405.11839965450815</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>803.48191545662439</v>
+      </c>
+      <c r="B6">
+        <v>172.42550532604795</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>589.89244079607136</v>
+      </c>
+      <c r="B7">
+        <v>922.27751408522874</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>921.54099749444663</v>
+      </c>
+      <c r="B8">
+        <v>80.000069740045149</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2.9648866503163562</v>
+      </c>
+      <c r="B9">
+        <v>104.82277630672144</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>292.18101966789925</v>
+      </c>
+      <c r="B10">
+        <v>666.2953169355585</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>160.31241574492094</v>
+      </c>
+      <c r="B11">
+        <v>597.36664664528132</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>575.31345035621189</v>
+      </c>
+      <c r="B12">
+        <v>326.84455365834344</v>
+      </c>
+      <c r="C12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>339.69050057362824</v>
+      </c>
+      <c r="B13">
+        <v>197.67476841370944</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>852.59906666706058</v>
+      </c>
+      <c r="B14">
+        <v>96.359976558532011</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>804.24918317253935</v>
+      </c>
+      <c r="B15">
+        <v>22.685100932806289</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>424.7309949571777</v>
+      </c>
+      <c r="B16">
+        <v>351.54517256982211</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>172.79509001953974</v>
+      </c>
+      <c r="B17">
+        <v>816.67203986825064</v>
+      </c>
+      <c r="C17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>860.49320244141256</v>
+      </c>
+      <c r="B18">
+        <v>988.76305272185937</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>638.19240049420443</v>
+      </c>
+      <c r="B19">
+        <v>375.2591219505058</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>240.96793443487675</v>
+      </c>
+      <c r="B20">
+        <v>784.2825401808193</v>
+      </c>
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>699.91353524336796</v>
+      </c>
+      <c r="B21">
+        <v>560.05809022816322</v>
+      </c>
+      <c r="C21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>473.32910613724187</v>
+      </c>
+      <c r="B22">
+        <v>743.16879710156252</v>
+      </c>
+      <c r="C22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>662.64077965092679</v>
+      </c>
+      <c r="B23">
+        <v>71.962954283638751</v>
+      </c>
+      <c r="C23">
         <v>0.1</v>
       </c>
     </row>
